--- a/REGULAR/RE-ENCODE/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/RE-ENCODE/TANEDO, MARIA EVELYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="400">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1959,7 +1959,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2002,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2126,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2255,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2412,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2477,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2520,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2595,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2781,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2847,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2905,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2971,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3027,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3102,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3145,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3211,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3267,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,8 +3363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K660" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K660"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K661" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K661"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3711,12 +3711,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K660"/>
+  <dimension ref="A2:K661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A554" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="E571" sqref="E571"/>
+      <selection pane="bottomLeft" activeCell="K573" sqref="K573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,7 +3891,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.074999999999989</v>
+        <v>42.074999999999989</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16832,10 +16832,10 @@
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B572" s="54"/>
+      <c r="A572" s="39"/>
+      <c r="B572" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="C572" s="13"/>
       <c r="D572" s="38"/>
       <c r="E572" s="9"/>
@@ -16844,14 +16844,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H572" s="38"/>
+      <c r="H572" s="38">
+        <v>1</v>
+      </c>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="20"/>
+      <c r="K572" s="48">
+        <v>45061</v>
+      </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B573" s="54"/>
       <c r="C573" s="13"/>
@@ -16869,7 +16873,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B574" s="54"/>
       <c r="C574" s="13"/>
@@ -16887,7 +16891,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B575" s="54"/>
       <c r="C575" s="13"/>
@@ -16905,7 +16909,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B576" s="54"/>
       <c r="C576" s="13"/>
@@ -16923,7 +16927,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B577" s="54"/>
       <c r="C577" s="13"/>
@@ -16941,7 +16945,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B578" s="54"/>
       <c r="C578" s="13"/>
@@ -16959,7 +16963,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B579" s="54"/>
       <c r="C579" s="13"/>
@@ -16977,7 +16981,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B580" s="54"/>
       <c r="C580" s="13"/>
@@ -16995,7 +16999,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B581" s="54"/>
       <c r="C581" s="13"/>
@@ -17013,7 +17017,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B582" s="54"/>
       <c r="C582" s="13"/>
@@ -17031,7 +17035,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B583" s="54"/>
       <c r="C583" s="13"/>
@@ -17049,7 +17053,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B584" s="54"/>
       <c r="C584" s="13"/>
@@ -17067,7 +17071,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B585" s="54"/>
       <c r="C585" s="13"/>
@@ -17085,7 +17089,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B586" s="54"/>
       <c r="C586" s="13"/>
@@ -17103,7 +17107,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B587" s="54"/>
       <c r="C587" s="13"/>
@@ -17121,7 +17125,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B588" s="54"/>
       <c r="C588" s="13"/>
@@ -17139,7 +17143,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B589" s="54"/>
       <c r="C589" s="13"/>
@@ -17157,7 +17161,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B590" s="54"/>
       <c r="C590" s="13"/>
@@ -17175,7 +17179,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B591" s="54"/>
       <c r="C591" s="13"/>
@@ -17193,7 +17197,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B592" s="54"/>
       <c r="C592" s="13"/>
@@ -17211,7 +17215,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B593" s="54"/>
       <c r="C593" s="13"/>
@@ -17229,7 +17233,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B594" s="54"/>
       <c r="C594" s="13"/>
@@ -17247,7 +17251,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B595" s="54"/>
       <c r="C595" s="13"/>
@@ -17265,7 +17269,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B596" s="54"/>
       <c r="C596" s="13"/>
@@ -17283,7 +17287,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B597" s="54"/>
       <c r="C597" s="13"/>
@@ -17301,7 +17305,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B598" s="54"/>
       <c r="C598" s="13"/>
@@ -17319,7 +17323,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B599" s="54"/>
       <c r="C599" s="13"/>
@@ -17337,7 +17341,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B600" s="54"/>
       <c r="C600" s="13"/>
@@ -17355,9 +17359,9 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
-        <v>45962</v>
-      </c>
-      <c r="B601" s="20"/>
+        <v>45931</v>
+      </c>
+      <c r="B601" s="54"/>
       <c r="C601" s="13"/>
       <c r="D601" s="38"/>
       <c r="E601" s="9"/>
@@ -17373,7 +17377,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17391,7 +17395,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17409,7 +17413,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17427,7 +17431,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17445,7 +17449,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17463,7 +17467,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17481,7 +17485,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17499,7 +17503,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17517,7 +17521,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17535,7 +17539,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17553,7 +17557,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17571,7 +17575,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17589,7 +17593,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17607,7 +17611,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17625,7 +17629,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17643,7 +17647,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17661,7 +17665,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17679,7 +17683,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17697,7 +17701,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17715,7 +17719,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17733,7 +17737,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17751,7 +17755,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17769,7 +17773,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17787,7 +17791,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17805,7 +17809,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17823,7 +17827,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17841,7 +17845,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17859,7 +17863,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17877,7 +17881,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17895,7 +17899,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17913,7 +17917,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17931,7 +17935,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17949,7 +17953,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17967,7 +17971,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17985,7 +17989,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18003,7 +18007,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18021,7 +18025,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18039,7 +18043,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18057,7 +18061,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18075,7 +18079,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18093,7 +18097,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18111,7 +18115,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18129,7 +18133,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18147,7 +18151,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18165,7 +18169,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18183,7 +18187,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18201,7 +18205,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18219,7 +18223,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18237,7 +18241,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18254,7 +18258,9 @@
       <c r="K650" s="20"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="39"/>
+      <c r="A651" s="39">
+        <v>47453</v>
+      </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
       <c r="D651" s="38"/>
@@ -18398,20 +18404,36 @@
       <c r="K659" s="20"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40"/>
-      <c r="B660" s="15"/>
-      <c r="C660" s="41"/>
-      <c r="D660" s="42"/>
+      <c r="A660" s="39"/>
+      <c r="B660" s="20"/>
+      <c r="C660" s="13"/>
+      <c r="D660" s="38"/>
       <c r="E660" s="9"/>
-      <c r="F660" s="15"/>
+      <c r="F660" s="20"/>
       <c r="G660" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H660" s="42"/>
+      <c r="H660" s="38"/>
       <c r="I660" s="9"/>
-      <c r="J660" s="12"/>
-      <c r="K660" s="15"/>
+      <c r="J660" s="11"/>
+      <c r="K660" s="20"/>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" s="40"/>
+      <c r="B661" s="15"/>
+      <c r="C661" s="41"/>
+      <c r="D661" s="42"/>
+      <c r="E661" s="9"/>
+      <c r="F661" s="15"/>
+      <c r="G661" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H661" s="42"/>
+      <c r="I661" s="9"/>
+      <c r="J661" s="12"/>
+      <c r="K661" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
